--- a/data/PokemonBlackRun.xlsx
+++ b/data/PokemonBlackRun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\VolundrAI\pokemon-nuzlocke-ai\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE2F84C-D4AC-469E-8E22-6E7FA7FA9E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BD3104-E9DB-4D82-AE43-683E852AA14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="2415" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{CB951569-D3D8-40FA-9299-7A41F1F0BE7C}"/>
+    <workbookView xWindow="4140" yWindow="3105" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{CB951569-D3D8-40FA-9299-7A41F1F0BE7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Run" sheetId="4" r:id="rId1"/>
@@ -522,13 +522,13 @@
     <t>001a</t>
   </si>
   <si>
-    <t>002b</t>
-  </si>
-  <si>
-    <t>003c</t>
-  </si>
-  <si>
     <t>LevelCap</t>
+  </si>
+  <si>
+    <t>001b</t>
+  </si>
+  <si>
+    <t>001c</t>
   </si>
 </sst>
 </file>
@@ -908,7 +908,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +928,7 @@
         <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C438ECFF-3815-4BD0-B5ED-596B2401FBF4}">
   <dimension ref="A1:BD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="202" zoomScaleNormal="202" workbookViewId="0"/>
+    <sheetView zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2214,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA276F34-80F0-448A-93AA-1E9DFD1276DC}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,7 +2279,7 @@
         <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
@@ -2298,7 +2300,7 @@
         <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>

--- a/data/PokemonBlackRun.xlsx
+++ b/data/PokemonBlackRun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\VolundrAI\pokemon-nuzlocke-ai\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BD3104-E9DB-4D82-AE43-683E852AA14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6EA8C6-9A28-4268-A756-3128CE72B50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="3105" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{CB951569-D3D8-40FA-9299-7A41F1F0BE7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{CB951569-D3D8-40FA-9299-7A41F1F0BE7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Run" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="313">
   <si>
     <t>BattleID</t>
   </si>
@@ -489,15 +489,6 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>004a</t>
-  </si>
-  <si>
-    <t>004b</t>
-  </si>
-  <si>
-    <t>004c</t>
-  </si>
-  <si>
     <t>10-10</t>
   </si>
   <si>
@@ -529,6 +520,462 @@
   </si>
   <si>
     <t>001c</t>
+  </si>
+  <si>
+    <t>Route 3</t>
+  </si>
+  <si>
+    <t>Pidove</t>
+  </si>
+  <si>
+    <t>8-8</t>
+  </si>
+  <si>
+    <t>Blitzle</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>9-9</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>Wellspring Cave</t>
+  </si>
+  <si>
+    <t>Roggenrola</t>
+  </si>
+  <si>
+    <t>10-13</t>
+  </si>
+  <si>
+    <t>Woobat</t>
+  </si>
+  <si>
+    <t>Required?</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>CherenGiftStraiton</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>OranBerry</t>
+  </si>
+  <si>
+    <t>PostGym1</t>
+  </si>
+  <si>
+    <t>WorkUp</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>Team Plasma Grunt</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>BattleType</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>Twins Kumi &amp; Amy</t>
+  </si>
+  <si>
+    <t>0017a</t>
+  </si>
+  <si>
+    <t>0017b</t>
+  </si>
+  <si>
+    <t>0017c</t>
+  </si>
+  <si>
+    <t>Water Sport</t>
+  </si>
+  <si>
+    <t>Wrap</t>
+  </si>
+  <si>
+    <t>Defense Curl</t>
+  </si>
+  <si>
+    <t>Focus Energy</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Nursery Aide Autumn</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>Preschooler Doyle</t>
+  </si>
+  <si>
+    <t>Preschooler Wendy</t>
+  </si>
+  <si>
+    <t>Preschooler Tully</t>
+  </si>
+  <si>
+    <t>Forewarn</t>
+  </si>
+  <si>
+    <t>Psywave</t>
+  </si>
+  <si>
+    <t>Lucky Chant</t>
+  </si>
+  <si>
+    <t>Yawn</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>PKMN Breeder Adelaide</t>
+  </si>
+  <si>
+    <t>Big Pecks</t>
+  </si>
+  <si>
+    <t>Gust</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>Detect</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>Team Plasma Grunts</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>School Kid Al</t>
+  </si>
+  <si>
+    <t>Lightningrod</t>
+  </si>
+  <si>
+    <t>Quick Attack</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Shock Wave</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>School Kid Marsha</t>
+  </si>
+  <si>
+    <t>Unaware</t>
+  </si>
+  <si>
+    <t>Confusion</t>
+  </si>
+  <si>
+    <t>Assurance</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>School Kid Gina</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>School Kid Edgar</t>
+  </si>
+  <si>
+    <t>Sturdy</t>
+  </si>
+  <si>
+    <t>Harden</t>
+  </si>
+  <si>
+    <t>Headbutt</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>Tympole</t>
+  </si>
+  <si>
+    <t>Swift Swim</t>
+  </si>
+  <si>
+    <t>Supersonic</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Bubblebeam</t>
+  </si>
+  <si>
+    <t>Timburr</t>
+  </si>
+  <si>
+    <t>Guts</t>
+  </si>
+  <si>
+    <t>Low Kick</t>
+  </si>
+  <si>
+    <t>BreederGiftRoute3</t>
+  </si>
+  <si>
+    <t>ItemsAfterPlasmaRoute3</t>
+  </si>
+  <si>
+    <t>ChestoBerry</t>
+  </si>
+  <si>
+    <t>0005a</t>
+  </si>
+  <si>
+    <t>StarterHeldItem</t>
+  </si>
+  <si>
+    <t>MiracleSeed</t>
+  </si>
+  <si>
+    <t>0005b</t>
+  </si>
+  <si>
+    <t>0005c</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>MysticWater</t>
+  </si>
+  <si>
+    <t>RockSmash</t>
+  </si>
+  <si>
+    <t>PinwheelForestOutside</t>
+  </si>
+  <si>
+    <t>12-17</t>
+  </si>
+  <si>
+    <t>Sawk</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>13-16</t>
+  </si>
+  <si>
+    <t>PinwheelForestInside</t>
+  </si>
+  <si>
+    <t>Cottonee</t>
+  </si>
+  <si>
+    <t>14-17</t>
+  </si>
+  <si>
+    <t>Sewaddle</t>
+  </si>
+  <si>
+    <t>Venipede</t>
+  </si>
+  <si>
+    <t>15-16</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>School Kid Carter</t>
+  </si>
+  <si>
+    <t>Scientist Satomi</t>
+  </si>
+  <si>
+    <t>School Kid Lydia</t>
+  </si>
+  <si>
+    <t>Leader Lenora</t>
+  </si>
+  <si>
+    <t>Crunch</t>
+  </si>
+  <si>
+    <t>Herdier</t>
+  </si>
+  <si>
+    <t>Intimidate</t>
+  </si>
+  <si>
+    <t>Take Down</t>
+  </si>
+  <si>
+    <t>Retaliate</t>
+  </si>
+  <si>
+    <t>Watchog</t>
+  </si>
+  <si>
+    <t>Illuminate</t>
+  </si>
+  <si>
+    <t>Hypnosis</t>
+  </si>
+  <si>
+    <t>ItemsAfterNNacrene</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0039</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>Nurse Shery</t>
+  </si>
+  <si>
+    <t>Preschooler Juliet</t>
+  </si>
+  <si>
+    <t>Preschooler Homer</t>
+  </si>
+  <si>
+    <t>Youngster Keita</t>
+  </si>
+  <si>
+    <t>Youngster Zachary</t>
+  </si>
+  <si>
+    <t>Battle Girl Lee</t>
+  </si>
+  <si>
+    <t>Black Belt Kentaro</t>
+  </si>
+  <si>
+    <t>Prankster</t>
+  </si>
+  <si>
+    <t>Poison Point</t>
+  </si>
+  <si>
+    <t>Psybeam</t>
+  </si>
+  <si>
+    <t>Imprison</t>
+  </si>
+  <si>
+    <t>Leech Seed</t>
+  </si>
+  <si>
+    <t>Stun Spore</t>
+  </si>
+  <si>
+    <t>Mega Drain</t>
+  </si>
+  <si>
+    <t>Rock Blast</t>
+  </si>
+  <si>
+    <t>Rollout</t>
+  </si>
+  <si>
+    <t>Poison Sting</t>
+  </si>
+  <si>
+    <t>Screech</t>
+  </si>
+  <si>
+    <t>Pursuit</t>
+  </si>
+  <si>
+    <t>Rock Throw</t>
+  </si>
+  <si>
+    <t>Petilil</t>
+  </si>
+  <si>
+    <t>Chlorophyll</t>
+  </si>
+  <si>
+    <t>Sleep Powder</t>
   </si>
 </sst>
 </file>
@@ -585,11 +1032,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -905,16 +1353,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750C178A-53C5-42B9-B9DC-BCB243DE7C50}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -924,21 +1374,21 @@
       <c r="B1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>161</v>
+      <c r="C1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>5</v>
       </c>
     </row>
@@ -949,18 +1399,18 @@
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>14</v>
       </c>
     </row>
@@ -971,7 +1421,7 @@
       <c r="B5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>14</v>
       </c>
     </row>
@@ -982,65 +1432,239 @@
       <c r="B6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8">
+        <v>103</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9">
+        <v>104</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
+        <v>105</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11">
+        <v>108</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D12">
+      <c r="C13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="4">
         <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="4">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1051,1162 +1675,2909 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C438ECFF-3815-4BD0-B5ED-596B2401FBF4}">
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BF53"/>
   <sheetViews>
-    <sheetView zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO1" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>60</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>64</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>73</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>73</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" t="s">
         <v>72</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>73</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>64</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>73</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>77</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>78</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>79</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>73</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>92</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>65</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
         <v>88</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>7</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>77</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>78</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>79</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
         <v>89</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>73</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>7</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>93</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>65</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>91</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>93</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>65</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>12</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>95</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>5</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>7</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>7</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>10</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>14</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>91</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>93</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>65</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>95</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>63</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>7</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>7</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>64</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>65</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>91</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>93</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>65</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>12</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>95</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>67</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>7</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>7</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>68</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>14</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" t="s">
         <v>100</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>7</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>77</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>78</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>79</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>80</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>76</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>7</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>8</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>77</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>79</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s">
         <v>102</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>90</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>73</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>7</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>92</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>12</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>65</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>94</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>90</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>73</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>7</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>92</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>65</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>94</v>
       </c>
-      <c r="U16" t="s">
+      <c r="W16" t="s">
         <v>91</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>73</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>7</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Z16" t="s">
         <v>93</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="AA16" t="s">
         <v>65</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AB16" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
         <v>72</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>73</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>8</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>68</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>14</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>98</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>116</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>76</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>73</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>8</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>117</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>78</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>79</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>73</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>10</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>12</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>14</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>96</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>116</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>76</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>73</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>8</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>117</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>78</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>79</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>73</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>8</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>64</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>12</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>65</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>97</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>116</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>76</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>73</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>8</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>117</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>78</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>79</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" t="s">
         <v>111</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>91</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>11</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>93</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>65</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>12</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>95</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" t="s">
         <v>112</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>90</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>7</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>10</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>92</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>12</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>65</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>94</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>118</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>76</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" t="s">
         <v>7</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>10</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>77</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>78</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>79</v>
       </c>
-      <c r="R21" t="s">
+      <c r="T21" t="s">
         <v>80</v>
       </c>
-      <c r="S21" t="s">
+      <c r="U21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" t="s">
         <v>113</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>91</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>73</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>12</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>93</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>94</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>120</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>95</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>121</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>122</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>73</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>14</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>125</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>126</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>120</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>127</v>
       </c>
-      <c r="S22" t="s">
+      <c r="U22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" t="s">
         <v>114</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>73</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>12</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>93</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>94</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>120</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>95</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>121</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>123</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>73</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>14</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>125</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>97</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>120</v>
       </c>
-      <c r="R23" t="s">
+      <c r="T23" t="s">
         <v>127</v>
       </c>
-      <c r="S23" t="s">
+      <c r="U23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" t="s">
         <v>115</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>91</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>73</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>12</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>93</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>94</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>120</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>95</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>121</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>124</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>73</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>14</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>125</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>96</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>120</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
         <v>127</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" t="s">
         <v>128</v>
       </c>
     </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>9</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P35">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X35" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y35">
+        <v>9</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>12</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P40">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41">
+        <v>12</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42">
+        <v>13</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y42">
+        <v>13</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" t="s">
+        <v>290</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>15</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" t="s">
+        <v>291</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P44">
+        <v>13</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" t="s">
+        <v>292</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" t="s">
+        <v>293</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46">
+        <v>13</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y46">
+        <v>13</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" t="s">
+        <v>294</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
+        <v>295</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>16</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" t="s">
+        <v>296</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" t="s">
+        <v>270</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50">
+        <v>17</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" t="s">
+        <v>271</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>17</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>15</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P52">
+        <v>15</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y52">
+        <v>15</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD52" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>18</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P53">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2214,16 +4585,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA276F34-80F0-448A-93AA-1E9DFD1276DC}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
@@ -2258,14 +4629,13 @@
         <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="3">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>138</v>
@@ -2279,14 +4649,13 @@
         <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="3">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>138</v>
@@ -2300,14 +4669,13 @@
         <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>138</v>
@@ -2421,17 +4789,16 @@
         <v>147</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="E10" s="3">
-        <f>0.4*0.5</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2442,17 +4809,16 @@
         <v>147</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E11" s="3">
-        <f>0.4*0.5</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2463,77 +4829,316 @@
         <v>147</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="E12" s="3">
-        <f>0.2*0.5</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E13" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="E15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="3">
         <v>0.5</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>153</v>
+      <c r="F18" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2544,32 +5149,157 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD4752D-41D9-49AC-A3BF-47F5A2A71C06}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
